--- a/biology/Histoire de la zoologie et de la botanique/Joseph_de_Joannis/Joseph_de_Joannis.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Joseph_de_Joannis/Joseph_de_Joannis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph de Joannis est un homme d'Église et un entomologiste amateur français, né le 6 juin 1864 à La Meignanne en Maine-et-Loire et mort le 27 octobre 1932 à Paris[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph de Joannis est un homme d'Église et un entomologiste amateur français, né le 6 juin 1864 à La Meignanne en Maine-et-Loire et mort le 27 octobre 1932 à Paris.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph de Joannis est né au château de La Cailleterie, en Anjou. 
 Il enseigne les mathématiques et la physique jusqu’en 1901 date à laquelle son statut d’ecclésiastique l’empêche d’exercer son métier.
@@ -545,11 +559,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>« Entomologie : tirés à part » publié par la Société entomologique de France, 1908[2]
-« Guide Pratique de l'Amateur de Papillons », publié par Librairie J.B. Baillière et Fils, 1912[3]
-« Lépidoptères hétérocères des Mascareignes et des Seychelles », publié par la Société entomologique de France, 1915[4]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>« Entomologie : tirés à part » publié par la Société entomologique de France, 1908
+« Guide Pratique de l'Amateur de Papillons », publié par Librairie J.B. Baillière et Fils, 1912
+« Lépidoptères hétérocères des Mascareignes et des Seychelles », publié par la Société entomologique de France, 1915</t>
         </is>
       </c>
     </row>
